--- a/my_submit - 副本.xlsx
+++ b/my_submit - 副本.xlsx
@@ -1532,8 +1532,8 @@
   <sheetPr/>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O8" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1667,7 +1667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:20">
+    <row r="3" ht="28.8" spans="1:20">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -1859,7 +1859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="100.8" spans="1:20">
+    <row r="7" customFormat="1" spans="1:20">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="G7" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I7" t="s">
@@ -1904,7 +1904,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" ht="100.8" spans="1:20">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="G8" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I8" t="s">
@@ -1951,7 +1951,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" ht="144" spans="1:20">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="G9" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I9" t="s">
@@ -1998,7 +1998,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" ht="86.4" spans="1:20">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="G10" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I10" t="s">
@@ -2045,7 +2045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" ht="201.6" spans="1:20">
+    <row r="11" ht="16.2" spans="1:20">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="G11" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>135</v>
       </c>
       <c r="I11" t="s">
